--- a/djangoreact/backend/AI/ai_medicine.xlsx
+++ b/djangoreact/backend/AI/ai_medicine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11760"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="9345"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -24,13 +24,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <x:si>
+    <x:t>색상앞</x:t>
+  </x:si>
+  <x:si>
     <x:t>의약품제형</x:t>
   </x:si>
   <x:si>
     <x:t>품목일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>색상앞</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -829,8 +829,8 @@
   <x:sheetPr codeName="Sheet1" filterMode="1"/>
   <x:dimension ref="A1:D91"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E34" activeCellId="0" sqref="E34:E34"/>
+    <x:sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E28" activeCellId="0" sqref="E28:E28"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -841,13 +841,13 @@
   <x:sheetData>
     <x:row r="1" spans="2:4">
       <x:c r="B1" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C1" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D1" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -1211,7 +1211,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D27" s="3">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
@@ -1239,7 +1239,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D29" s="3">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
@@ -1309,7 +1309,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D34" s="3">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
@@ -1365,7 +1365,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D38" s="2">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
@@ -1463,7 +1463,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D45" s="2">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:4">
@@ -1673,7 +1673,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D60" s="3">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:4">
@@ -1953,7 +1953,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D80" s="3">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:4">
@@ -2065,7 +2065,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D88" s="2">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:4">
